--- a/prin_corr.xlsx
+++ b/prin_corr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/espina/Documents/TFM/tfm_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56653C47-EE72-2B44-8E37-D5B9E1F9846B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A53E8C-3653-AA43-B0B8-9A693D731A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{189FAFC7-3452-6744-B7DA-4DF4B6C399B8}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" activeTab="3" xr2:uid="{189FAFC7-3452-6744-B7DA-4DF4B6C399B8}"/>
   </bookViews>
   <sheets>
     <sheet name="SLMVP" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{88B18243-37A9-EA46-B7F1-451B51CA68CC}" name="corr_lol" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/espina/Documents/TFM/tfm_code/corr_lol.csv" comma="1">
+    <textPr sourceFile="/Users/espina/Documents/TFM/tfm_code/corr_lol.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -56,7 +56,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{1CB2F83A-C214-BB4C-A506-E675880DDA29}" name="corr_pca" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/espina/Documents/TFM/tfm_code/corr_pca.csv" comma="1">
+    <textPr sourceFile="/Users/espina/Documents/TFM/tfm_code/corr_pca.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -66,7 +66,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{C951ECD3-316E-5641-8AC1-9AC2A983D0AB}" name="corr_slmvp1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/espina/Documents/TFM/tfm_code/corr_slmvp.csv" comma="1">
+    <textPr sourceFile="/Users/espina/Documents/TFM/tfm_code/corr_slmvp.csv" comma="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="140">
   <si>
     <t>prin1</t>
   </si>
@@ -499,15 +499,6 @@
   </si>
   <si>
     <t>LOL</t>
-  </si>
-  <si>
-    <t>prin1_lol</t>
-  </si>
-  <si>
-    <t>prin1_slmvp</t>
-  </si>
-  <si>
-    <t>prin1_pca</t>
   </si>
 </sst>
 </file>
@@ -586,14 +577,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1818,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564FFC99-EC7D-5146-B87C-F475D5AF0931}">
   <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1829,21 +1818,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3736,21 +3725,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5657,21 +5646,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7553,26 +7542,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E648CB05-CCD4-A94C-832E-9F958B352558}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" t="s">
-        <v>142</v>
+      <c r="B1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>140</v>
+      <c r="A2" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7585,8 +7574,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>141</v>
+      <c r="A3" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="B3">
         <v>0.376467</v>
@@ -7599,8 +7588,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>142</v>
+      <c r="A4" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B4">
         <v>-0.98380699999999999</v>
